--- a/biology/Écologie/Cottonwood_Creek/Cottonwood_Creek.xlsx
+++ b/biology/Écologie/Cottonwood_Creek/Cottonwood_Creek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Cottonwood Creek est une rivière de Californie, aux  États-Unis et un important affluent du fleuve Sacramento. 
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle prend sa source dans les White Mountains (en) et coule ensuite vers l'est dans le désert du Grand Bassin. La Cottonwood Creek irrigue près de 2400 km² dans la chaîne côtiere, avant de rejoindre le fleuve Sacramento en aval de la région de Redding-Anderson. Elle est l'un des trois plus importants affluents du Sacramento entre le barrage de Keswick et Red Bluff.
 </t>
@@ -543,7 +557,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">San Francisco Estuary and Watershed Science vol 4 (3), décembre 2006, art. 27
 </t>
@@ -574,7 +590,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site friendsoftheriver, avec une photo et des informations sur les activités sur la rivière.
  Portail des lacs et cours d'eau   Portail de la Californie   Portail de l’écologie                   </t>
